--- a/r5-core-Profiles-4-Organization-Practitioner/StructureDefinition-at-core-extendedContactDetail.xlsx
+++ b/r5-core-Profiles-4-Organization-Practitioner/StructureDefinition-at-core-extendedContactDetail.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T14:15:44+00:00</t>
+    <t>2024-02-17T14:31:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
